--- a/result/real-recall-precision.xlsx
+++ b/result/real-recall-precision.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A3:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -491,7 +491,7 @@
         <v>0.99299999999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>0.97199999999999998</v>
+        <v>0.99199999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/result/real-recall-precision.xlsx
+++ b/result/real-recall-precision.xlsx
@@ -14,11 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
-  <si>
-    <t>188KB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>1000W</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +37,38 @@
   </si>
   <si>
     <t>260KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116KB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,63 +419,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D14"/>
+  <dimension ref="A3:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.96899999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.94400000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.98399999999999999</v>
       </c>
@@ -460,27 +546,54 @@
       <c r="D10" s="1">
         <v>0.97199999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <v>0.9840000000000001</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.97900000000000009</v>
+      </c>
+      <c r="H10">
+        <v>97.4</v>
+      </c>
+      <c r="I10">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.996</v>
       </c>
@@ -491,6 +604,18 @@
         <v>0.99299999999999999</v>
       </c>
       <c r="D14" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.99400000000000011</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I14" s="1">
         <v>0.99199999999999999</v>
       </c>
     </row>

--- a/result/real-recall-precision.xlsx
+++ b/result/real-recall-precision.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="20">
   <si>
     <t>1000W</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,30 @@
   </si>
   <si>
     <t>116KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.001/0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.001/0.002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,9 +136,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -419,27 +444,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I14"/>
+  <dimension ref="A3:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="6" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1E-3</v>
       </c>
       <c r="F3">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>2E-3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -455,8 +489,14 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -481,8 +521,32 @@
       <c r="I5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.96899999999999997</v>
       </c>
@@ -498,16 +562,46 @@
       <c r="I6" s="1">
         <v>0.94400000000000006</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="1">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -532,8 +626,32 @@
       <c r="I9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.98399999999999999</v>
       </c>
@@ -558,16 +676,46 @@
       <c r="I10">
         <v>97.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="1">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="M10">
+        <v>97.4</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -592,8 +740,32 @@
       <c r="I13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.996</v>
       </c>
@@ -616,6 +788,134 @@
         <v>0.99199999999999999</v>
       </c>
       <c r="I14" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="C26">
+        <v>97.4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="D30" s="1">
         <v>0.99199999999999999</v>
       </c>
     </row>
